--- a/dataExcel/【沙漠之鹰（StatTrak™） _ 机械工业 (久经沙场)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【沙漠之鹰（StatTrak™） _ 机械工业 (久经沙场)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,919 +422,919 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-14 22:13:55</v>
+        <v>2023-09-17 21:37:39</v>
       </c>
       <c r="B8">
+        <v>61.58</v>
+      </c>
+      <c r="C8">
+        <v>80.09</v>
+      </c>
+      <c r="D8">
+        <v>589</v>
+      </c>
+      <c r="E8">
         <v>59</v>
       </c>
-      <c r="C8">
-        <v>80.78</v>
-      </c>
-      <c r="D8">
-        <v>606</v>
-      </c>
-      <c r="E8">
-        <v>55</v>
-      </c>
       <c r="F8">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 01:51:25</v>
+        <v>2023-09-18 01:16:46</v>
       </c>
       <c r="B9">
-        <v>61.33</v>
+        <v>61.39</v>
       </c>
       <c r="C9">
-        <v>78.09</v>
+        <v>87.8</v>
       </c>
       <c r="D9">
         <v>585</v>
       </c>
       <c r="E9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-15 05:29:07</v>
+        <v>2023-09-18 04:56:18</v>
       </c>
       <c r="B10">
-        <v>62.5</v>
+        <v>61.5</v>
       </c>
       <c r="C10">
-        <v>88.05</v>
+        <v>78.05</v>
       </c>
       <c r="D10">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-15 09:06:08</v>
+        <v>2023-09-18 08:34:40</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>60.4</v>
       </c>
       <c r="C11">
-        <v>85.58</v>
+        <v>76.59</v>
       </c>
       <c r="D11">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 04:53:57</v>
+        <v>2023-09-18 12:09:31</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="C12">
-        <v>85.92</v>
+        <v>87.29</v>
       </c>
       <c r="D12">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="E12">
         <v>58</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 08:28:47</v>
+        <v>2023-09-18 15:52:02</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>61.25</v>
       </c>
       <c r="C13">
-        <v>85.12</v>
+        <v>83.44</v>
       </c>
       <c r="D13">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="E13">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-16 12:30:36</v>
+        <v>2023-09-18 19:35:29</v>
       </c>
       <c r="B14">
-        <v>62.3</v>
+        <v>60.1</v>
       </c>
       <c r="C14">
-        <v>81.99</v>
+        <v>83</v>
       </c>
       <c r="D14">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="E14">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-16 16:08:52</v>
+        <v>2023-09-18 19:45:15</v>
       </c>
       <c r="B15">
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="C15">
-        <v>80.45</v>
+        <v>83</v>
       </c>
       <c r="D15">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-16 19:49:05</v>
+        <v>2023-09-18 23:25:56</v>
       </c>
       <c r="B16">
-        <v>60.39</v>
+        <v>61.25</v>
       </c>
       <c r="C16">
-        <v>86.21</v>
+        <v>81.4</v>
       </c>
       <c r="D16">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E16">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-16 23:27:49</v>
+        <v>2023-09-19 03:07:07</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>61.6</v>
       </c>
       <c r="C17">
-        <v>81.48</v>
+        <v>81.4</v>
       </c>
       <c r="D17">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E17">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 03:05:13</v>
+        <v>2023-09-19 06:47:45</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>61.8</v>
       </c>
       <c r="C18">
-        <v>87.52</v>
+        <v>82.55</v>
       </c>
       <c r="D18">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 06:45:49</v>
+        <v>2023-09-19 10:27:03</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>61.8</v>
       </c>
       <c r="C19">
-        <v>75.73</v>
+        <v>83.21</v>
       </c>
       <c r="D19">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E19">
         <v>59</v>
       </c>
       <c r="F19">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-17 10:20:59</v>
+        <v>2023-09-19 13:58:44</v>
       </c>
       <c r="B20">
-        <v>61.9</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>82.93</v>
+        <v>83.21</v>
       </c>
       <c r="D20">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="E20">
         <v>60</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-17 14:04:26</v>
+        <v>2023-09-19 17:38:32</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>60.98</v>
       </c>
       <c r="C21">
-        <v>77.54</v>
+        <v>83.35</v>
       </c>
       <c r="D21">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="E21">
         <v>60</v>
       </c>
       <c r="F21">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-17 14:12:59</v>
+        <v>2023-09-19 21:15:59</v>
       </c>
       <c r="B22">
-        <v>61.8</v>
+        <v>61.7</v>
       </c>
       <c r="C22">
-        <v>77.54</v>
+        <v>81.97</v>
       </c>
       <c r="D22">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-17 17:57:33</v>
+        <v>2023-09-19 21:24:00</v>
       </c>
       <c r="B23">
-        <v>60.89</v>
+        <v>61.6</v>
       </c>
       <c r="C23">
-        <v>78.05</v>
+        <v>81.97</v>
       </c>
       <c r="D23">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E23">
         <v>59</v>
       </c>
       <c r="F23">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-17 21:37:39</v>
+        <v>2023-09-20 00:58:55</v>
       </c>
       <c r="B24">
-        <v>61.58</v>
+        <v>61.9</v>
       </c>
       <c r="C24">
-        <v>80.09</v>
+        <v>83.5</v>
       </c>
       <c r="D24">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E24">
         <v>59</v>
       </c>
       <c r="F24">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 01:16:46</v>
+        <v>2023-09-20 04:37:28</v>
       </c>
       <c r="B25">
-        <v>61.39</v>
+        <v>61.9</v>
       </c>
       <c r="C25">
-        <v>87.8</v>
+        <v>80.84</v>
       </c>
       <c r="D25">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E25">
         <v>59</v>
       </c>
       <c r="F25">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 04:56:18</v>
+        <v>2023-09-20 08:17:15</v>
       </c>
       <c r="B26">
-        <v>61.5</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>78.05</v>
+        <v>85.16</v>
       </c>
       <c r="D26">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="E26">
         <v>59</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-18 08:34:40</v>
+        <v>2023-09-20 11:59:19</v>
       </c>
       <c r="B27">
-        <v>60.4</v>
+        <v>61.8</v>
       </c>
       <c r="C27">
-        <v>76.59</v>
+        <v>83.92</v>
       </c>
       <c r="D27">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E27">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-18 12:09:31</v>
+        <v>2023-09-20 15:38:24</v>
       </c>
       <c r="B28">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="C28">
-        <v>87.29</v>
+        <v>79.25</v>
       </c>
       <c r="D28">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E28">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-18 15:52:02</v>
+        <v>2023-09-20 19:18:12</v>
       </c>
       <c r="B29">
-        <v>61.25</v>
+        <v>61.9</v>
       </c>
       <c r="C29">
-        <v>83.44</v>
+        <v>83.04</v>
       </c>
       <c r="D29">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E29">
         <v>57</v>
       </c>
       <c r="F29">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-18 19:35:29</v>
+        <v>2023-09-20 22:54:14</v>
       </c>
       <c r="B30">
-        <v>60.1</v>
+        <v>62.3</v>
       </c>
       <c r="C30">
-        <v>83</v>
+        <v>83.92</v>
       </c>
       <c r="D30">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E30">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-18 19:45:15</v>
+        <v>2023-09-21 02:29:58</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>62.1</v>
       </c>
       <c r="C31">
-        <v>83</v>
+        <v>77.28</v>
       </c>
       <c r="D31">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E31">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F31">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-18 23:25:56</v>
+        <v>2023-09-21 06:09:37</v>
       </c>
       <c r="B32">
-        <v>61.25</v>
+        <v>62.87</v>
       </c>
       <c r="C32">
-        <v>81.4</v>
+        <v>86.28</v>
       </c>
       <c r="D32">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E32">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-19 03:07:07</v>
+        <v>2023-09-21 09:51:52</v>
       </c>
       <c r="B33">
-        <v>61.6</v>
+        <v>62</v>
       </c>
       <c r="C33">
-        <v>81.4</v>
+        <v>78.92</v>
       </c>
       <c r="D33">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-19 06:47:45</v>
+        <v>2023-09-21 13:33:45</v>
       </c>
       <c r="B34">
-        <v>61.8</v>
+        <v>61.7</v>
       </c>
       <c r="C34">
-        <v>82.55</v>
+        <v>79.06</v>
       </c>
       <c r="D34">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E34">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-19 10:27:03</v>
+        <v>2023-09-21 17:15:58</v>
       </c>
       <c r="B35">
-        <v>61.8</v>
+        <v>62</v>
       </c>
       <c r="C35">
-        <v>83.21</v>
+        <v>81.76</v>
       </c>
       <c r="D35">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="E35">
         <v>59</v>
       </c>
       <c r="F35">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-19 13:58:44</v>
+        <v>2023-09-21 20:57:32</v>
       </c>
       <c r="B36">
-        <v>60</v>
+        <v>61.89</v>
       </c>
       <c r="C36">
-        <v>83.21</v>
+        <v>84.46</v>
       </c>
       <c r="D36">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E36">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-19 17:38:32</v>
+        <v>2023-09-23 00:27:16</v>
       </c>
       <c r="B37">
-        <v>60.98</v>
+        <v>62.9</v>
       </c>
       <c r="C37">
-        <v>83.35</v>
+        <v>83.02</v>
       </c>
       <c r="D37">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-19 21:15:59</v>
+        <v>2023-09-23 04:19:06</v>
       </c>
       <c r="B38">
-        <v>61.7</v>
+        <v>63.4</v>
       </c>
       <c r="C38">
-        <v>81.97</v>
+        <v>78.09</v>
       </c>
       <c r="D38">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-19 21:24:00</v>
+        <v>2023-09-23 07:51:53</v>
       </c>
       <c r="B39">
-        <v>61.6</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>81.97</v>
+        <v>79.19</v>
       </c>
       <c r="D39">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E39">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F39">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 00:58:55</v>
+        <v>2023-09-23 11:50:26</v>
       </c>
       <c r="B40">
-        <v>61.9</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>83.5</v>
+        <v>80.28</v>
       </c>
       <c r="D40">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="E40">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F40">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-20 04:37:28</v>
+        <v>2023-09-23 15:30:39</v>
       </c>
       <c r="B41">
-        <v>61.9</v>
+        <v>63.67</v>
       </c>
       <c r="C41">
-        <v>80.84</v>
+        <v>79.33</v>
       </c>
       <c r="D41">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E41">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F41">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-20 08:17:15</v>
+        <v>2023-09-23 19:14:05</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>61.99</v>
       </c>
       <c r="C42">
-        <v>85.16</v>
+        <v>83.93</v>
       </c>
       <c r="D42">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E42">
         <v>59</v>
       </c>
       <c r="F42">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-20 11:59:19</v>
+        <v>2023-09-23 22:53:44</v>
       </c>
       <c r="B43">
-        <v>61.8</v>
+        <v>63.29</v>
       </c>
       <c r="C43">
-        <v>83.92</v>
+        <v>85.17</v>
       </c>
       <c r="D43">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E43">
         <v>59</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-20 15:38:24</v>
+        <v>2023-09-24 02:37:06</v>
       </c>
       <c r="B44">
-        <v>61.9</v>
+        <v>63.11</v>
       </c>
       <c r="C44">
-        <v>79.25</v>
+        <v>83.56</v>
       </c>
       <c r="D44">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E44">
         <v>59</v>
       </c>
       <c r="F44">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-20 19:18:12</v>
+        <v>2023-09-24 06:21:03</v>
       </c>
       <c r="B45">
-        <v>61.9</v>
+        <v>63.28</v>
       </c>
       <c r="C45">
-        <v>83.04</v>
+        <v>77.64</v>
       </c>
       <c r="D45">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E45">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F45">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-20 22:54:14</v>
+        <v>2023-09-24 09:54:22</v>
       </c>
       <c r="B46">
-        <v>62.3</v>
+        <v>63.18</v>
       </c>
       <c r="C46">
-        <v>83.92</v>
+        <v>85.59</v>
       </c>
       <c r="D46">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E46">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 02:29:58</v>
+        <v>2023-09-24 13:33:12</v>
       </c>
       <c r="B47">
-        <v>62.1</v>
+        <v>62.39</v>
       </c>
       <c r="C47">
-        <v>77.28</v>
+        <v>85.96</v>
       </c>
       <c r="D47">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="E47">
         <v>59</v>
       </c>
       <c r="F47">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-21 06:09:37</v>
+        <v>2023-09-24 17:11:05</v>
       </c>
       <c r="B48">
-        <v>62.87</v>
+        <v>61.77</v>
       </c>
       <c r="C48">
-        <v>86.28</v>
+        <v>78.52</v>
       </c>
       <c r="D48">
-        <v>582</v>
+        <v>628</v>
       </c>
       <c r="E48">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-21 09:51:52</v>
+        <v>2023-09-24 20:55:01</v>
       </c>
       <c r="B49">
-        <v>62</v>
+        <v>60.6</v>
       </c>
       <c r="C49">
-        <v>78.92</v>
+        <v>78.95</v>
       </c>
       <c r="D49">
-        <v>578</v>
+        <v>632</v>
       </c>
       <c r="E49">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-21 13:33:45</v>
+        <v>2023-09-25 00:37:14</v>
       </c>
       <c r="B50">
-        <v>61.7</v>
+        <v>61.6</v>
       </c>
       <c r="C50">
-        <v>79.06</v>
+        <v>78.88</v>
       </c>
       <c r="D50">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="E50">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-21 17:15:58</v>
+        <v>2023-09-25 04:16:47</v>
       </c>
       <c r="B51">
-        <v>62</v>
+        <v>61.6</v>
       </c>
       <c r="C51">
-        <v>81.76</v>
+        <v>78.08</v>
       </c>
       <c r="D51">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="E51">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-21 20:57:32</v>
+        <v>2023-09-25 07:56:02</v>
       </c>
       <c r="B52">
-        <v>61.89</v>
+        <v>61.53</v>
       </c>
       <c r="C52">
-        <v>84.46</v>
+        <v>77.79</v>
       </c>
       <c r="D52">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="E52">
         <v>58</v>
       </c>
       <c r="F52">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-23 00:27:16</v>
+        <v>2023-09-25 11:33:05</v>
       </c>
       <c r="B53">
-        <v>62.9</v>
+        <v>61.35</v>
       </c>
       <c r="C53">
-        <v>83.02</v>
+        <v>79.17</v>
       </c>
       <c r="D53">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="E53">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F53">
         <v>28</v>
@@ -1342,396 +1342,396 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-23 04:19:06</v>
+        <v>2023-09-25 15:09:20</v>
       </c>
       <c r="B54">
-        <v>63.4</v>
+        <v>61.14</v>
       </c>
       <c r="C54">
-        <v>78.09</v>
+        <v>81</v>
       </c>
       <c r="D54">
-        <v>577</v>
+        <v>633</v>
       </c>
       <c r="E54">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F54">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 07:51:53</v>
+        <v>2023-09-25 18:49:09</v>
       </c>
       <c r="B55">
-        <v>64</v>
+        <v>61.03</v>
       </c>
       <c r="C55">
-        <v>79.19</v>
+        <v>80.19</v>
       </c>
       <c r="D55">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="E55">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 11:50:26</v>
+        <v>2023-09-25 22:25:58</v>
       </c>
       <c r="B56">
-        <v>64</v>
+        <v>60.53</v>
       </c>
       <c r="C56">
-        <v>80.28</v>
+        <v>80.12</v>
       </c>
       <c r="D56">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="E56">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 15:30:39</v>
+        <v>2023-09-26 02:10:24</v>
       </c>
       <c r="B57">
-        <v>63.67</v>
+        <v>61.14</v>
       </c>
       <c r="C57">
-        <v>79.33</v>
+        <v>87.64</v>
       </c>
       <c r="D57">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="E57">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 19:14:05</v>
+        <v>2023-09-26 05:50:53</v>
       </c>
       <c r="B58">
-        <v>61.99</v>
+        <v>63.18</v>
       </c>
       <c r="C58">
-        <v>83.93</v>
+        <v>80.43</v>
       </c>
       <c r="D58">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="E58">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 22:53:44</v>
+        <v>2023-09-26 09:33:45</v>
       </c>
       <c r="B59">
-        <v>63.29</v>
+        <v>63.11</v>
       </c>
       <c r="C59">
-        <v>85.17</v>
+        <v>79.34</v>
       </c>
       <c r="D59">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E59">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F59">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-24 02:37:06</v>
+        <v>2023-09-26 13:07:32</v>
       </c>
       <c r="B60">
-        <v>63.11</v>
+        <v>62.9</v>
       </c>
       <c r="C60">
-        <v>83.56</v>
+        <v>79.7</v>
       </c>
       <c r="D60">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="E60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F60">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-24 06:21:03</v>
+        <v>2023-09-26 16:47:27</v>
       </c>
       <c r="B61">
-        <v>63.28</v>
+        <v>61.89</v>
       </c>
       <c r="C61">
-        <v>77.64</v>
+        <v>80.06</v>
       </c>
       <c r="D61">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-24 09:54:22</v>
+        <v>2023-09-26 20:30:42</v>
       </c>
       <c r="B62">
-        <v>63.18</v>
+        <v>61.39</v>
       </c>
       <c r="C62">
-        <v>85.59</v>
+        <v>81.31</v>
       </c>
       <c r="D62">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="E62">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F62">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-24 13:33:12</v>
+        <v>2023-09-27 00:03:33</v>
       </c>
       <c r="B63">
-        <v>62.39</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>85.96</v>
+        <v>81.68</v>
       </c>
       <c r="D63">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="E63">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F63">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 17:11:05</v>
+        <v>2023-09-27 03:41:16</v>
       </c>
       <c r="B64">
-        <v>61.77</v>
+        <v>61.17</v>
       </c>
       <c r="C64">
-        <v>78.52</v>
+        <v>81.89</v>
       </c>
       <c r="D64">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E64">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F64">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-24 20:55:01</v>
+        <v>2023-09-27 07:22:43</v>
       </c>
       <c r="B65">
-        <v>60.6</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>78.95</v>
+        <v>79.48</v>
       </c>
       <c r="D65">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="E65">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-25 00:37:14</v>
+        <v>2023-09-27 11:01:14</v>
       </c>
       <c r="B66">
-        <v>61.6</v>
+        <v>61.5</v>
       </c>
       <c r="C66">
-        <v>78.88</v>
+        <v>85.25</v>
       </c>
       <c r="D66">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E66">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-25 04:16:47</v>
+        <v>2023-09-27 14:40:32</v>
       </c>
       <c r="B67">
-        <v>61.6</v>
+        <v>61.5</v>
       </c>
       <c r="C67">
-        <v>78.08</v>
+        <v>77.36</v>
       </c>
       <c r="D67">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E67">
         <v>57</v>
       </c>
       <c r="F67">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 07:56:02</v>
+        <v>2023-09-27 18:21:17</v>
       </c>
       <c r="B68">
-        <v>61.53</v>
+        <v>59.8</v>
       </c>
       <c r="C68">
-        <v>77.79</v>
+        <v>83.57</v>
       </c>
       <c r="D68">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E68">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F68">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 11:33:05</v>
+        <v>2023-09-27 22:00:54</v>
       </c>
       <c r="B69">
-        <v>61.35</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>79.17</v>
+        <v>86.93</v>
       </c>
       <c r="D69">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="E69">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 15:09:20</v>
+        <v>2023-09-28 01:36:20</v>
       </c>
       <c r="B70">
-        <v>61.14</v>
+        <v>61.23</v>
       </c>
       <c r="C70">
-        <v>81</v>
+        <v>85.98</v>
       </c>
       <c r="D70">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="E70">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 18:49:09</v>
+        <v>2023-09-28 05:12:18</v>
       </c>
       <c r="B71">
-        <v>61.03</v>
+        <v>61.57</v>
       </c>
       <c r="C71">
-        <v>80.19</v>
+        <v>78.22</v>
       </c>
       <c r="D71">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="E71">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F71">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 22:25:58</v>
+        <v>2023-09-28 05:16:26</v>
       </c>
       <c r="B72">
-        <v>60.53</v>
+        <v>61</v>
       </c>
       <c r="C72">
-        <v>80.12</v>
+        <v>78.22</v>
       </c>
       <c r="D72">
-        <v>647</v>
+        <v>607</v>
       </c>
       <c r="E72">
         <v>58</v>
       </c>
       <c r="F72">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 02:10:24</v>
+        <v>2023-09-28 08:54:08</v>
       </c>
       <c r="B73">
-        <v>61.14</v>
+        <v>61.87</v>
       </c>
       <c r="C73">
-        <v>87.64</v>
+        <v>81</v>
       </c>
       <c r="D73">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E73">
         <v>58</v>
@@ -1742,139 +1742,139 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-26 05:50:53</v>
+        <v>2023-09-28 12:30:13</v>
       </c>
       <c r="B74">
-        <v>63.18</v>
+        <v>61.64</v>
       </c>
       <c r="C74">
-        <v>80.43</v>
+        <v>85.46</v>
       </c>
       <c r="D74">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E74">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-26 09:33:45</v>
+        <v>2023-09-28 16:12:56</v>
       </c>
       <c r="B75">
-        <v>63.11</v>
+        <v>61.09</v>
       </c>
       <c r="C75">
-        <v>79.34</v>
+        <v>85.97</v>
       </c>
       <c r="D75">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="E75">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F75">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 13:07:32</v>
+        <v>2023-09-28 16:20:01</v>
       </c>
       <c r="B76">
-        <v>62.9</v>
+        <v>61.09</v>
       </c>
       <c r="C76">
-        <v>79.7</v>
+        <v>85.97</v>
       </c>
       <c r="D76">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F76">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-26 16:47:27</v>
+        <v>2023-09-28 19:59:30</v>
       </c>
       <c r="B77">
-        <v>61.89</v>
+        <v>58.7</v>
       </c>
       <c r="C77">
-        <v>80.06</v>
+        <v>78.66</v>
       </c>
       <c r="D77">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="E77">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F77">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 20:30:42</v>
+        <v>2023-09-28 23:38:41</v>
       </c>
       <c r="B78">
-        <v>61.39</v>
+        <v>61.07</v>
       </c>
       <c r="C78">
-        <v>81.31</v>
+        <v>79.25</v>
       </c>
       <c r="D78">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E78">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F78">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-27 00:03:33</v>
+        <v>2023-09-29 03:15:12</v>
       </c>
       <c r="B79">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79">
-        <v>81.68</v>
+        <v>84.07</v>
       </c>
       <c r="D79">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="E79">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F79">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-27 03:41:16</v>
+        <v>2023-09-29 06:50:25</v>
       </c>
       <c r="B80">
-        <v>61.17</v>
+        <v>60.4</v>
       </c>
       <c r="C80">
-        <v>81.89</v>
+        <v>79.43</v>
       </c>
       <c r="D80">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E80">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F80">
         <v>27</v>
@@ -1882,259 +1882,259 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-27 07:22:43</v>
+        <v>2023-09-29 10:31:48</v>
       </c>
       <c r="B81">
-        <v>61</v>
+        <v>60.5</v>
       </c>
       <c r="C81">
-        <v>79.48</v>
+        <v>80.31</v>
       </c>
       <c r="D81">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="E81">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F81">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 11:01:14</v>
+        <v>2023-09-29 14:06:08</v>
       </c>
       <c r="B82">
-        <v>61.5</v>
+        <v>60</v>
       </c>
       <c r="C82">
-        <v>85.25</v>
+        <v>84.84</v>
       </c>
       <c r="D82">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="E82">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 14:40:32</v>
+        <v>2023-09-29 17:42:23</v>
       </c>
       <c r="B83">
-        <v>61.5</v>
+        <v>59.18</v>
       </c>
       <c r="C83">
-        <v>77.36</v>
+        <v>84.84</v>
       </c>
       <c r="D83">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="E83">
         <v>57</v>
       </c>
       <c r="F83">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 18:21:17</v>
+        <v>2023-09-29 21:24:38</v>
       </c>
       <c r="B84">
-        <v>59.8</v>
+        <v>58.97</v>
       </c>
       <c r="C84">
-        <v>83.57</v>
+        <v>89.87</v>
       </c>
       <c r="D84">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="E84">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 22:00:54</v>
+        <v>2023-09-30 01:02:50</v>
       </c>
       <c r="B85">
-        <v>61</v>
+        <v>58.38</v>
       </c>
       <c r="C85">
-        <v>86.93</v>
+        <v>80.89</v>
       </c>
       <c r="D85">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="E85">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-28 01:36:20</v>
+        <v>2023-09-30 01:08:25</v>
       </c>
       <c r="B86">
-        <v>61.23</v>
+        <v>58.38</v>
       </c>
       <c r="C86">
-        <v>85.98</v>
+        <v>80.89</v>
       </c>
       <c r="D86">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="E86">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F86">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-28 05:12:18</v>
+        <v>2023-09-30 04:45:43</v>
       </c>
       <c r="B87">
-        <v>61.57</v>
+        <v>58.48</v>
       </c>
       <c r="C87">
-        <v>78.22</v>
+        <v>78.2</v>
       </c>
       <c r="D87">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="E87">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F87">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-28 05:16:26</v>
+        <v>2023-09-30 04:50:14</v>
       </c>
       <c r="B88">
-        <v>61</v>
+        <v>58.48</v>
       </c>
       <c r="C88">
-        <v>78.22</v>
+        <v>78.2</v>
       </c>
       <c r="D88">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="E88">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F88">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 08:54:08</v>
+        <v>2023-09-30 08:28:18</v>
       </c>
       <c r="B89">
-        <v>61.87</v>
+        <v>58.18</v>
       </c>
       <c r="C89">
-        <v>81</v>
+        <v>89.74</v>
       </c>
       <c r="D89">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="E89">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F89">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-28 12:30:13</v>
+        <v>2023-09-30 12:05:21</v>
       </c>
       <c r="B90">
-        <v>61.64</v>
+        <v>57.48</v>
       </c>
       <c r="C90">
-        <v>85.46</v>
+        <v>83.9</v>
       </c>
       <c r="D90">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="E90">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F90">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-28 16:12:56</v>
+        <v>2023-09-30 12:10:40</v>
       </c>
       <c r="B91">
-        <v>61.09</v>
+        <v>57.48</v>
       </c>
       <c r="C91">
-        <v>85.97</v>
+        <v>83.9</v>
       </c>
       <c r="D91">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="E91">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F91">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-28 16:20:01</v>
+        <v>2023-09-30 15:40:39</v>
       </c>
       <c r="B92">
-        <v>61.09</v>
+        <v>56.5</v>
       </c>
       <c r="C92">
-        <v>85.97</v>
+        <v>94.26</v>
       </c>
       <c r="D92">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="E92">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F92">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-28 19:59:30</v>
+        <v>2023-09-30 15:47:57</v>
       </c>
       <c r="B93">
-        <v>58.7</v>
+        <v>56.49</v>
       </c>
       <c r="C93">
-        <v>78.66</v>
+        <v>94.26</v>
       </c>
       <c r="D93">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="E93">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F93">
         <v>28</v>
@@ -2142,216 +2142,216 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-28 23:38:41</v>
+        <v>2023-09-30 19:23:27</v>
       </c>
       <c r="B94">
-        <v>61.07</v>
+        <v>55</v>
       </c>
       <c r="C94">
-        <v>79.25</v>
+        <v>89.52</v>
       </c>
       <c r="D94">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="E94">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F94">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 03:15:12</v>
+        <v>2023-09-30 23:02:45</v>
       </c>
       <c r="B95">
-        <v>60</v>
+        <v>54.7</v>
       </c>
       <c r="C95">
-        <v>84.07</v>
+        <v>84.99</v>
       </c>
       <c r="D95">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="E95">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F95">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-29 06:50:25</v>
+        <v>2023-10-01 02:42:17</v>
       </c>
       <c r="B96">
-        <v>60.4</v>
+        <v>55</v>
       </c>
       <c r="C96">
-        <v>79.43</v>
+        <v>89.44</v>
       </c>
       <c r="D96">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="E96">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F96">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-29 10:31:48</v>
+        <v>2023-10-01 06:23:08</v>
       </c>
       <c r="B97">
-        <v>60.5</v>
+        <v>55</v>
       </c>
       <c r="C97">
-        <v>80.31</v>
+        <v>83.89</v>
       </c>
       <c r="D97">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="E97">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F97">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-29 14:06:08</v>
+        <v>2023-10-01 10:04:18</v>
       </c>
       <c r="B98">
-        <v>60</v>
+        <v>54.29</v>
       </c>
       <c r="C98">
-        <v>84.84</v>
+        <v>84.98</v>
       </c>
       <c r="D98">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="E98">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F98">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-29 17:42:23</v>
+        <v>2023-10-01 13:42:06</v>
       </c>
       <c r="B99">
-        <v>59.18</v>
+        <v>54.08</v>
       </c>
       <c r="C99">
-        <v>84.84</v>
+        <v>84.98</v>
       </c>
       <c r="D99">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="E99">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F99">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-29 21:24:38</v>
+        <v>2023-10-01 17:19:35</v>
       </c>
       <c r="B100">
-        <v>58.97</v>
+        <v>57.7</v>
       </c>
       <c r="C100">
-        <v>89.87</v>
+        <v>81.12</v>
       </c>
       <c r="D100">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="E100">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F100">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 01:02:50</v>
+        <v>2023-10-01 20:54:41</v>
       </c>
       <c r="B101">
-        <v>58.38</v>
+        <v>57.4</v>
       </c>
       <c r="C101">
-        <v>80.89</v>
+        <v>78.42</v>
       </c>
       <c r="D101">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E101">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F101">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-30 01:08:25</v>
+        <v>2023-10-02 00:33:22</v>
       </c>
       <c r="B102">
-        <v>58.38</v>
+        <v>58.87</v>
       </c>
       <c r="C102">
-        <v>80.89</v>
+        <v>86.52</v>
       </c>
       <c r="D102">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E102">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F102">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-30 04:45:43</v>
+        <v>2023-10-02 04:11:32</v>
       </c>
       <c r="B103">
-        <v>58.48</v>
+        <v>59.88</v>
       </c>
       <c r="C103">
-        <v>78.2</v>
+        <v>84.29</v>
       </c>
       <c r="D103">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E103">
         <v>54</v>
       </c>
       <c r="F103">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-30 04:50:14</v>
+        <v>2023-10-02 07:47:50</v>
       </c>
       <c r="B104">
-        <v>58.48</v>
+        <v>59.88</v>
       </c>
       <c r="C104">
-        <v>78.2</v>
+        <v>86.94</v>
       </c>
       <c r="D104">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="E104">
         <v>54</v>
@@ -2362,16 +2362,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-30 08:28:18</v>
+        <v>2023-10-02 11:26:18</v>
       </c>
       <c r="B105">
-        <v>58.18</v>
+        <v>60</v>
       </c>
       <c r="C105">
-        <v>89.74</v>
+        <v>86.44</v>
       </c>
       <c r="D105">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="E105">
         <v>54</v>
@@ -2382,899 +2382,899 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-30 12:05:21</v>
+        <v>2023-10-02 15:05:31</v>
       </c>
       <c r="B106">
-        <v>57.48</v>
+        <v>59.9</v>
       </c>
       <c r="C106">
-        <v>83.9</v>
+        <v>90.17</v>
       </c>
       <c r="D106">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="E106">
         <v>54</v>
       </c>
       <c r="F106">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-09-30 12:10:40</v>
+        <v>2023-10-02 18:45:03</v>
       </c>
       <c r="B107">
-        <v>57.48</v>
+        <v>59.88</v>
       </c>
       <c r="C107">
-        <v>83.9</v>
+        <v>87.23</v>
       </c>
       <c r="D107">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E107">
         <v>54</v>
       </c>
       <c r="F107">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-09-30 15:40:39</v>
+        <v>2023-10-02 22:24:30</v>
       </c>
       <c r="B108">
-        <v>56.5</v>
+        <v>58.88</v>
       </c>
       <c r="C108">
-        <v>94.26</v>
+        <v>78.05</v>
       </c>
       <c r="D108">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E108">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F108">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-09-30 15:47:57</v>
+        <v>2023-10-03 02:06:17</v>
       </c>
       <c r="B109">
-        <v>56.49</v>
+        <v>58.77</v>
       </c>
       <c r="C109">
-        <v>94.26</v>
+        <v>85.01</v>
       </c>
       <c r="D109">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="E109">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F109">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-09-30 19:23:27</v>
+        <v>2023-10-03 05:40:51</v>
       </c>
       <c r="B110">
+        <v>58.67</v>
+      </c>
+      <c r="C110">
+        <v>86.19</v>
+      </c>
+      <c r="D110">
+        <v>650</v>
+      </c>
+      <c r="E110">
         <v>55</v>
       </c>
-      <c r="C110">
-        <v>89.52</v>
-      </c>
-      <c r="D110">
-        <v>668</v>
-      </c>
-      <c r="E110">
-        <v>50</v>
-      </c>
       <c r="F110">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-09-30 23:02:45</v>
+        <v>2023-10-03 09:19:14</v>
       </c>
       <c r="B111">
-        <v>54.7</v>
+        <v>58.77</v>
       </c>
       <c r="C111">
-        <v>84.99</v>
+        <v>89.64</v>
       </c>
       <c r="D111">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F111">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-01 02:42:17</v>
+        <v>2023-10-03 12:57:50</v>
       </c>
       <c r="B112">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C112">
-        <v>89.44</v>
+        <v>83.18</v>
       </c>
       <c r="D112">
         <v>655</v>
       </c>
       <c r="E112">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F112">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-01 06:23:08</v>
+        <v>2023-10-03 13:03:42</v>
       </c>
       <c r="B113">
-        <v>55</v>
+        <v>57.9</v>
       </c>
       <c r="C113">
-        <v>83.89</v>
+        <v>83.18</v>
       </c>
       <c r="D113">
         <v>655</v>
       </c>
       <c r="E113">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F113">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-01 10:04:18</v>
+        <v>2023-10-03 16:41:30</v>
       </c>
       <c r="B114">
-        <v>54.29</v>
+        <v>57.28</v>
       </c>
       <c r="C114">
-        <v>84.98</v>
+        <v>90.43</v>
       </c>
       <c r="D114">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E114">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F114">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-01 13:42:06</v>
+        <v>2023-10-03 20:17:38</v>
       </c>
       <c r="B115">
-        <v>54.08</v>
+        <v>57.26</v>
       </c>
       <c r="C115">
-        <v>84.98</v>
+        <v>86.12</v>
       </c>
       <c r="D115">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E115">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F115">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-01 17:19:35</v>
+        <v>2023-10-03 23:57:40</v>
       </c>
       <c r="B116">
-        <v>57.7</v>
+        <v>57.38</v>
       </c>
       <c r="C116">
-        <v>81.12</v>
+        <v>86.05</v>
       </c>
       <c r="D116">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E116">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F116">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-01 20:54:41</v>
+        <v>2023-10-04 03:38:21</v>
       </c>
       <c r="B117">
-        <v>57.4</v>
+        <v>58.79</v>
       </c>
       <c r="C117">
-        <v>78.42</v>
+        <v>89.9</v>
       </c>
       <c r="D117">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="E117">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F117">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-02 00:33:22</v>
+        <v>2023-10-04 07:15:54</v>
       </c>
       <c r="B118">
-        <v>58.87</v>
+        <v>58.79</v>
       </c>
       <c r="C118">
-        <v>86.52</v>
+        <v>87.95</v>
       </c>
       <c r="D118">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E118">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F118">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-02 04:11:32</v>
+        <v>2023-10-04 10:55:55</v>
       </c>
       <c r="B119">
-        <v>59.88</v>
+        <v>57.18</v>
       </c>
       <c r="C119">
-        <v>84.29</v>
+        <v>89.97</v>
       </c>
       <c r="D119">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="E119">
         <v>54</v>
       </c>
       <c r="F119">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-02 07:47:50</v>
+        <v>2023-10-04 14:35:03</v>
       </c>
       <c r="B120">
-        <v>59.88</v>
+        <v>58.48</v>
       </c>
       <c r="C120">
-        <v>86.94</v>
+        <v>86.37</v>
       </c>
       <c r="D120">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E120">
         <v>54</v>
       </c>
       <c r="F120">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-02 11:26:18</v>
+        <v>2023-10-04 18:12:02</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>58.06</v>
       </c>
       <c r="C121">
-        <v>86.44</v>
+        <v>84.14</v>
       </c>
       <c r="D121">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="E121">
         <v>54</v>
       </c>
       <c r="F121">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-02 15:05:31</v>
+        <v>2023-10-04 21:50:54</v>
       </c>
       <c r="B122">
-        <v>59.9</v>
+        <v>57</v>
       </c>
       <c r="C122">
-        <v>90.17</v>
+        <v>81.48</v>
       </c>
       <c r="D122">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="E122">
         <v>54</v>
       </c>
       <c r="F122">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-02 18:45:03</v>
+        <v>2023-10-05 01:28:09</v>
       </c>
       <c r="B123">
-        <v>59.88</v>
+        <v>56.78</v>
       </c>
       <c r="C123">
-        <v>87.23</v>
+        <v>78.31</v>
       </c>
       <c r="D123">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E123">
         <v>54</v>
       </c>
       <c r="F123">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-02 22:24:30</v>
+        <v>2023-10-05 05:07:40</v>
       </c>
       <c r="B124">
-        <v>58.88</v>
+        <v>58.1</v>
       </c>
       <c r="C124">
-        <v>78.05</v>
+        <v>82.56</v>
       </c>
       <c r="D124">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E124">
         <v>54</v>
       </c>
       <c r="F124">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-03 02:06:17</v>
+        <v>2023-10-05 08:48:10</v>
       </c>
       <c r="B125">
-        <v>58.77</v>
+        <v>58.1</v>
       </c>
       <c r="C125">
-        <v>85.01</v>
+        <v>82.85</v>
       </c>
       <c r="D125">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E125">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F125">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-03 05:40:51</v>
+        <v>2023-10-05 12:27:26</v>
       </c>
       <c r="B126">
-        <v>58.67</v>
+        <v>56.89</v>
       </c>
       <c r="C126">
-        <v>86.19</v>
+        <v>87.1</v>
       </c>
       <c r="D126">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E126">
         <v>55</v>
       </c>
       <c r="F126">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-03 09:19:14</v>
+        <v>2023-10-05 16:08:11</v>
       </c>
       <c r="B127">
-        <v>58.77</v>
+        <v>58.04</v>
       </c>
       <c r="C127">
-        <v>89.64</v>
+        <v>86.38</v>
       </c>
       <c r="D127">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E127">
         <v>55</v>
       </c>
       <c r="F127">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-03 12:57:50</v>
+        <v>2023-10-05 19:43:16</v>
       </c>
       <c r="B128">
-        <v>58</v>
+        <v>57.84</v>
       </c>
       <c r="C128">
-        <v>83.18</v>
+        <v>86.38</v>
       </c>
       <c r="D128">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="E128">
         <v>55</v>
       </c>
       <c r="F128">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-03 13:03:42</v>
+        <v>2023-10-05 23:19:21</v>
       </c>
       <c r="B129">
-        <v>57.9</v>
+        <v>58.1</v>
       </c>
       <c r="C129">
-        <v>83.18</v>
+        <v>86.31</v>
       </c>
       <c r="D129">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E129">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F129">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-03 16:41:30</v>
+        <v>2023-10-06 02:58:17</v>
       </c>
       <c r="B130">
-        <v>57.28</v>
+        <v>57.84</v>
       </c>
       <c r="C130">
-        <v>90.43</v>
+        <v>86.16</v>
       </c>
       <c r="D130">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="E130">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F130">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-03 20:17:38</v>
+        <v>2023-10-06 06:36:48</v>
       </c>
       <c r="B131">
-        <v>57.26</v>
+        <v>59</v>
       </c>
       <c r="C131">
-        <v>86.12</v>
+        <v>88.21</v>
       </c>
       <c r="D131">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="E131">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F131">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-03 23:57:40</v>
+        <v>2023-10-06 10:19:19</v>
       </c>
       <c r="B132">
-        <v>57.38</v>
+        <v>58.8</v>
       </c>
       <c r="C132">
-        <v>86.05</v>
+        <v>88.21</v>
       </c>
       <c r="D132">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="E132">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F132">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-04 03:38:21</v>
+        <v>2023-10-06 13:59:05</v>
       </c>
       <c r="B133">
-        <v>58.79</v>
+        <v>57.5</v>
       </c>
       <c r="C133">
-        <v>89.9</v>
+        <v>84.75</v>
       </c>
       <c r="D133">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E133">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F133">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-04 07:15:54</v>
+        <v>2023-10-06 17:39:54</v>
       </c>
       <c r="B134">
-        <v>58.79</v>
+        <v>56</v>
       </c>
       <c r="C134">
-        <v>87.95</v>
+        <v>89</v>
       </c>
       <c r="D134">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E134">
         <v>54</v>
       </c>
       <c r="F134">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-04 10:55:55</v>
+        <v>2023-10-06 21:17:49</v>
       </c>
       <c r="B135">
-        <v>57.18</v>
+        <v>56.77</v>
       </c>
       <c r="C135">
-        <v>89.97</v>
+        <v>77.55</v>
       </c>
       <c r="D135">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E135">
         <v>54</v>
       </c>
       <c r="F135">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-04 14:35:03</v>
+        <v>2023-10-07 00:58:07</v>
       </c>
       <c r="B136">
-        <v>58.48</v>
+        <v>56.9</v>
       </c>
       <c r="C136">
-        <v>86.37</v>
+        <v>88.64</v>
       </c>
       <c r="D136">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E136">
         <v>54</v>
       </c>
       <c r="F136">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-04 18:12:02</v>
+        <v>2023-10-07 04:37:22</v>
       </c>
       <c r="B137">
-        <v>58.06</v>
+        <v>58</v>
       </c>
       <c r="C137">
-        <v>84.14</v>
+        <v>89.51</v>
       </c>
       <c r="D137">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="E137">
         <v>54</v>
       </c>
       <c r="F137">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-04 21:50:54</v>
+        <v>2023-10-07 08:15:45</v>
       </c>
       <c r="B138">
-        <v>57</v>
+        <v>57.9</v>
       </c>
       <c r="C138">
-        <v>81.48</v>
+        <v>88.15</v>
       </c>
       <c r="D138">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="E138">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F138">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-05 01:28:09</v>
+        <v>2023-10-07 11:56:41</v>
       </c>
       <c r="B139">
-        <v>56.78</v>
+        <v>58</v>
       </c>
       <c r="C139">
-        <v>78.31</v>
+        <v>86.35</v>
       </c>
       <c r="D139">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="E139">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F139">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-05 05:07:40</v>
+        <v>2023-10-07 15:37:46</v>
       </c>
       <c r="B140">
-        <v>58.1</v>
+        <v>56</v>
       </c>
       <c r="C140">
-        <v>82.56</v>
+        <v>80.59</v>
       </c>
       <c r="D140">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="E140">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F140">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-05 08:48:10</v>
+        <v>2023-10-07 19:17:47</v>
       </c>
       <c r="B141">
-        <v>58.1</v>
+        <v>58.9</v>
       </c>
       <c r="C141">
-        <v>82.85</v>
+        <v>86.92</v>
       </c>
       <c r="D141">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E141">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F141">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-05 12:27:26</v>
+        <v>2023-10-07 22:57:52</v>
       </c>
       <c r="B142">
-        <v>56.89</v>
+        <v>58.9</v>
       </c>
       <c r="C142">
-        <v>87.1</v>
+        <v>86.42</v>
       </c>
       <c r="D142">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E142">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-05 16:08:11</v>
+        <v>2023-10-08 02:38:34</v>
       </c>
       <c r="B143">
-        <v>58.04</v>
+        <v>58.69</v>
       </c>
       <c r="C143">
-        <v>86.38</v>
+        <v>85.56</v>
       </c>
       <c r="D143">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E143">
         <v>55</v>
       </c>
       <c r="F143">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-05 19:43:16</v>
+        <v>2023-10-08 06:16:37</v>
       </c>
       <c r="B144">
-        <v>57.84</v>
+        <v>59</v>
       </c>
       <c r="C144">
-        <v>86.38</v>
+        <v>89.43</v>
       </c>
       <c r="D144">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E144">
         <v>55</v>
       </c>
       <c r="F144">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-05 23:19:21</v>
+        <v>2023-10-08 09:53:43</v>
       </c>
       <c r="B145">
-        <v>58.1</v>
+        <v>58</v>
       </c>
       <c r="C145">
-        <v>86.31</v>
+        <v>84.75</v>
       </c>
       <c r="D145">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="E145">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F145">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-06 02:58:17</v>
+        <v>2023-10-08 13:28:56</v>
       </c>
       <c r="B146">
-        <v>57.84</v>
+        <v>57.98</v>
       </c>
       <c r="C146">
-        <v>86.16</v>
+        <v>84.75</v>
       </c>
       <c r="D146">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="E146">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F146">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-06 06:36:48</v>
+        <v>2023-10-08 17:08:12</v>
       </c>
       <c r="B147">
-        <v>59</v>
+        <v>57.57</v>
       </c>
       <c r="C147">
-        <v>88.21</v>
+        <v>88.64</v>
       </c>
       <c r="D147">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E147">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F147">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-06 10:19:19</v>
+        <v>2023-10-08 20:47:27</v>
       </c>
       <c r="B148">
-        <v>58.8</v>
+        <v>57.75</v>
       </c>
       <c r="C148">
-        <v>88.21</v>
+        <v>87.13</v>
       </c>
       <c r="D148">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E148">
         <v>55</v>
       </c>
       <c r="F148">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-06 13:59:05</v>
+        <v>2023-10-09 00:27:55</v>
       </c>
       <c r="B149">
-        <v>57.5</v>
+        <v>56.6</v>
       </c>
       <c r="C149">
-        <v>84.75</v>
+        <v>88.64</v>
       </c>
       <c r="D149">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E149">
         <v>55</v>
       </c>
       <c r="F149">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-06 17:39:54</v>
+        <v>2023-10-09 04:08:37</v>
       </c>
       <c r="B150">
-        <v>56</v>
+        <v>56.8</v>
       </c>
       <c r="C150">
-        <v>89</v>
+        <v>89.14</v>
       </c>
       <c r="D150">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E150">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F150">
         <v>30</v>
@@ -3282,1062 +3282,1182 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-06 21:17:49</v>
+        <v>2023-10-09 07:48:40</v>
       </c>
       <c r="B151">
-        <v>56.77</v>
+        <v>57.65</v>
       </c>
       <c r="C151">
-        <v>77.55</v>
+        <v>90.65</v>
       </c>
       <c r="D151">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E151">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F151">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-07 00:58:07</v>
+        <v>2023-10-09 11:26:50</v>
       </c>
       <c r="B152">
-        <v>56.9</v>
+        <v>59.87</v>
       </c>
       <c r="C152">
-        <v>88.64</v>
+        <v>93.03</v>
       </c>
       <c r="D152">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E152">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F152">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-07 04:37:22</v>
+        <v>2023-10-09 15:06:39</v>
       </c>
       <c r="B153">
-        <v>58</v>
+        <v>59.77</v>
       </c>
       <c r="C153">
-        <v>89.51</v>
+        <v>98.28</v>
       </c>
       <c r="D153">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E153">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F153">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-07 08:15:45</v>
+        <v>2023-10-09 18:41:14</v>
       </c>
       <c r="B154">
-        <v>57.9</v>
+        <v>59.4</v>
       </c>
       <c r="C154">
-        <v>88.15</v>
+        <v>96.41</v>
       </c>
       <c r="D154">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E154">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F154">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-07 11:56:41</v>
+        <v>2023-10-09 22:17:50</v>
       </c>
       <c r="B155">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C155">
-        <v>86.35</v>
+        <v>83.24</v>
       </c>
       <c r="D155">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="E155">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F155">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-07 15:37:46</v>
+        <v>2023-10-10 01:59:54</v>
       </c>
       <c r="B156">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C156">
-        <v>80.59</v>
+        <v>96.41</v>
       </c>
       <c r="D156">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E156">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F156">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-07 19:17:47</v>
+        <v>2023-10-10 05:39:30</v>
       </c>
       <c r="B157">
-        <v>58.9</v>
+        <v>60</v>
       </c>
       <c r="C157">
-        <v>86.92</v>
+        <v>98.29</v>
       </c>
       <c r="D157">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="E157">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F157">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-07 22:57:52</v>
+        <v>2023-10-10 09:20:15</v>
       </c>
       <c r="B158">
-        <v>58.9</v>
+        <v>59.9</v>
       </c>
       <c r="C158">
-        <v>86.42</v>
+        <v>91.81</v>
       </c>
       <c r="D158">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="E158">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F158">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-08 02:38:34</v>
+        <v>2023-10-10 12:59:24</v>
       </c>
       <c r="B159">
-        <v>58.69</v>
+        <v>59.7</v>
       </c>
       <c r="C159">
-        <v>85.56</v>
+        <v>97.93</v>
       </c>
       <c r="D159">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="E159">
         <v>55</v>
       </c>
       <c r="F159">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-08 06:16:37</v>
+        <v>2023-10-10 16:40:09</v>
       </c>
       <c r="B160">
-        <v>59</v>
+        <v>59.2</v>
       </c>
       <c r="C160">
-        <v>89.43</v>
+        <v>91.95</v>
       </c>
       <c r="D160">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E160">
         <v>55</v>
       </c>
       <c r="F160">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-08 09:53:43</v>
+        <v>2023-10-10 20:18:51</v>
       </c>
       <c r="B161">
-        <v>58</v>
+        <v>59.3</v>
       </c>
       <c r="C161">
-        <v>84.75</v>
+        <v>96.76</v>
       </c>
       <c r="D161">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="E161">
         <v>55</v>
       </c>
       <c r="F161">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-08 13:28:56</v>
+        <v>2023-10-10 23:55:57</v>
       </c>
       <c r="B162">
-        <v>57.98</v>
+        <v>60</v>
       </c>
       <c r="C162">
-        <v>84.75</v>
+        <v>94.94</v>
       </c>
       <c r="D162">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="E162">
         <v>55</v>
       </c>
       <c r="F162">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-08 17:08:12</v>
+        <v>2023-10-11 03:31:57</v>
       </c>
       <c r="B163">
-        <v>57.57</v>
+        <v>58</v>
       </c>
       <c r="C163">
-        <v>88.64</v>
+        <v>91.15</v>
       </c>
       <c r="D163">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="E163">
         <v>55</v>
       </c>
       <c r="F163">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-08 20:47:27</v>
+        <v>2023-10-11 07:10:16</v>
       </c>
       <c r="B164">
-        <v>57.75</v>
+        <v>58</v>
       </c>
       <c r="C164">
-        <v>87.13</v>
+        <v>87.55</v>
       </c>
       <c r="D164">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="E164">
         <v>55</v>
       </c>
       <c r="F164">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-09 00:27:55</v>
+        <v>2023-10-11 10:48:24</v>
       </c>
       <c r="B165">
-        <v>56.6</v>
+        <v>58</v>
       </c>
       <c r="C165">
-        <v>88.64</v>
+        <v>93.97</v>
       </c>
       <c r="D165">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="E165">
         <v>55</v>
       </c>
       <c r="F165">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-09 04:08:37</v>
+        <v>2023-10-11 14:29:20</v>
       </c>
       <c r="B166">
-        <v>56.8</v>
+        <v>58</v>
       </c>
       <c r="C166">
-        <v>89.14</v>
+        <v>91.12</v>
       </c>
       <c r="D166">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="E166">
         <v>55</v>
       </c>
       <c r="F166">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-09 07:48:40</v>
+        <v>2023-10-11 18:09:01</v>
       </c>
       <c r="B167">
-        <v>57.65</v>
+        <v>56.9</v>
       </c>
       <c r="C167">
-        <v>90.65</v>
+        <v>83.9</v>
       </c>
       <c r="D167">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="E167">
         <v>55</v>
       </c>
       <c r="F167">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-09 11:26:50</v>
+        <v>2023-10-11 21:50:32</v>
       </c>
       <c r="B168">
-        <v>59.87</v>
+        <v>59.3</v>
       </c>
       <c r="C168">
-        <v>93.03</v>
+        <v>92</v>
       </c>
       <c r="D168">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="E168">
         <v>55</v>
       </c>
       <c r="F168">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-09 15:06:39</v>
+        <v>2023-10-12 01:28:49</v>
       </c>
       <c r="B169">
-        <v>59.77</v>
+        <v>59.3</v>
       </c>
       <c r="C169">
-        <v>98.28</v>
+        <v>91.41</v>
       </c>
       <c r="D169">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="E169">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F169">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-09 18:41:14</v>
+        <v>2023-10-12 05:09:35</v>
       </c>
       <c r="B170">
-        <v>59.4</v>
+        <v>61</v>
       </c>
       <c r="C170">
-        <v>96.41</v>
+        <v>87.68</v>
       </c>
       <c r="D170">
-        <v>634</v>
+        <v>589</v>
       </c>
       <c r="E170">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F170">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-09 22:17:50</v>
+        <v>2023-10-12 08:47:49</v>
       </c>
       <c r="B171">
-        <v>60</v>
+        <v>61.2</v>
       </c>
       <c r="C171">
-        <v>83.24</v>
+        <v>91.18</v>
       </c>
       <c r="D171">
-        <v>625</v>
+        <v>584</v>
       </c>
       <c r="E171">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F171">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-10 01:59:54</v>
+        <v>2023-10-12 12:20:13</v>
       </c>
       <c r="B172">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C172">
-        <v>96.41</v>
+        <v>92.35</v>
       </c>
       <c r="D172">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="E172">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F172">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-10 05:39:30</v>
+        <v>2023-10-12 16:01:51</v>
       </c>
       <c r="B173">
-        <v>60</v>
+        <v>59.7</v>
       </c>
       <c r="C173">
-        <v>98.29</v>
+        <v>89.07</v>
       </c>
       <c r="D173">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="E173">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-10 09:20:15</v>
+        <v>2023-10-12 19:41:46</v>
       </c>
       <c r="B174">
-        <v>59.9</v>
+        <v>59.4</v>
       </c>
       <c r="C174">
-        <v>91.81</v>
+        <v>89.94</v>
       </c>
       <c r="D174">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="E174">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F174">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-10 12:59:24</v>
+        <v>2023-10-12 23:20:38</v>
       </c>
       <c r="B175">
-        <v>59.7</v>
+        <v>61.2</v>
       </c>
       <c r="C175">
-        <v>97.93</v>
+        <v>83.74</v>
       </c>
       <c r="D175">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="E175">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F175">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-10 16:40:09</v>
+        <v>2023-10-13 03:01:43</v>
       </c>
       <c r="B176">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="C176">
-        <v>91.95</v>
+        <v>92.94</v>
       </c>
       <c r="D176">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="E176">
         <v>55</v>
       </c>
       <c r="F176">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-10 20:18:51</v>
+        <v>2023-10-13 06:41:58</v>
       </c>
       <c r="B177">
-        <v>59.3</v>
+        <v>60.8</v>
       </c>
       <c r="C177">
-        <v>96.76</v>
+        <v>88.43</v>
       </c>
       <c r="D177">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="E177">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-10 23:55:57</v>
+        <v>2023-10-13 10:19:47</v>
       </c>
       <c r="B178">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C178">
-        <v>94.94</v>
+        <v>95.44</v>
       </c>
       <c r="D178">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="E178">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F178">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-11 03:31:57</v>
+        <v>2023-10-13 13:56:36</v>
       </c>
       <c r="B179">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C179">
-        <v>91.15</v>
+        <v>94.93</v>
       </c>
       <c r="D179">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="E179">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F179">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-11 07:10:16</v>
+        <v>2023-10-13 17:35:03</v>
       </c>
       <c r="B180">
+        <v>60</v>
+      </c>
+      <c r="C180">
+        <v>95.23</v>
+      </c>
+      <c r="D180">
+        <v>589</v>
+      </c>
+      <c r="E180">
         <v>58</v>
       </c>
-      <c r="C180">
-        <v>87.55</v>
-      </c>
-      <c r="D180">
-        <v>612</v>
-      </c>
-      <c r="E180">
-        <v>55</v>
-      </c>
       <c r="F180">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-11 10:48:24</v>
+        <v>2023-10-13 21:13:52</v>
       </c>
       <c r="B181">
-        <v>58</v>
+        <v>59.9</v>
       </c>
       <c r="C181">
-        <v>93.97</v>
+        <v>95.52</v>
       </c>
       <c r="D181">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="E181">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F181">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-11 14:29:20</v>
+        <v>2023-10-14 00:52:20</v>
       </c>
       <c r="B182">
-        <v>58</v>
+        <v>60.69</v>
       </c>
       <c r="C182">
-        <v>91.12</v>
+        <v>87.63</v>
       </c>
       <c r="D182">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="E182">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F182">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-11 18:09:01</v>
+        <v>2023-10-14 04:32:33</v>
       </c>
       <c r="B183">
-        <v>56.9</v>
+        <v>60.39</v>
       </c>
       <c r="C183">
-        <v>83.9</v>
+        <v>91.03</v>
       </c>
       <c r="D183">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="E183">
         <v>55</v>
       </c>
       <c r="F183">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-11 21:50:32</v>
+        <v>2023-10-14 08:12:23</v>
       </c>
       <c r="B184">
-        <v>59.3</v>
+        <v>60.3</v>
       </c>
       <c r="C184">
-        <v>92</v>
+        <v>95.99</v>
       </c>
       <c r="D184">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E184">
         <v>55</v>
       </c>
       <c r="F184">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-12 01:28:49</v>
+        <v>2023-10-14 11:52:49</v>
       </c>
       <c r="B185">
-        <v>59.3</v>
+        <v>60.2</v>
       </c>
       <c r="C185">
-        <v>91.41</v>
+        <v>95.99</v>
       </c>
       <c r="D185">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E185">
         <v>55</v>
       </c>
       <c r="F185">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-12 05:09:35</v>
+        <v>2023-10-14 15:32:23</v>
       </c>
       <c r="B186">
-        <v>61</v>
+        <v>60.2</v>
       </c>
       <c r="C186">
-        <v>87.68</v>
+        <v>95.85</v>
       </c>
       <c r="D186">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="E186">
         <v>56</v>
       </c>
       <c r="F186">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-12 08:47:49</v>
+        <v>2023-10-14 19:12:16</v>
       </c>
       <c r="B187">
-        <v>61.2</v>
+        <v>59.38</v>
       </c>
       <c r="C187">
-        <v>91.18</v>
+        <v>89.86</v>
       </c>
       <c r="D187">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="E187">
         <v>56</v>
       </c>
       <c r="F187">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-12 12:20:13</v>
+        <v>2023-10-14 22:51:01</v>
       </c>
       <c r="B188">
-        <v>61</v>
+        <v>59.2</v>
       </c>
       <c r="C188">
-        <v>92.35</v>
+        <v>88.32</v>
       </c>
       <c r="D188">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="E188">
         <v>56</v>
       </c>
       <c r="F188">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-12 16:01:51</v>
+        <v>2023-10-15 02:29:31</v>
       </c>
       <c r="B189">
-        <v>59.7</v>
+        <v>58.7</v>
       </c>
       <c r="C189">
-        <v>89.07</v>
+        <v>97.46</v>
       </c>
       <c r="D189">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="E189">
         <v>56</v>
       </c>
       <c r="F189">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-12 19:41:46</v>
+        <v>2023-10-15 06:06:07</v>
       </c>
       <c r="B190">
-        <v>59.4</v>
+        <v>59.2</v>
       </c>
       <c r="C190">
-        <v>89.94</v>
+        <v>99.78</v>
       </c>
       <c r="D190">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="E190">
         <v>56</v>
       </c>
       <c r="F190">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-12 23:20:38</v>
+        <v>2023-10-15 06:12:08</v>
       </c>
       <c r="B191">
-        <v>61.2</v>
+        <v>59.2</v>
       </c>
       <c r="C191">
-        <v>83.74</v>
+        <v>99.78</v>
       </c>
       <c r="D191">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="E191">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F191">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-13 03:01:43</v>
+        <v>2023-10-15 09:53:33</v>
       </c>
       <c r="B192">
-        <v>60</v>
+        <v>58.29</v>
       </c>
       <c r="C192">
-        <v>92.94</v>
+        <v>91.01</v>
       </c>
       <c r="D192">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E192">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F192">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-13 06:41:58</v>
+        <v>2023-10-15 13:32:14</v>
       </c>
       <c r="B193">
-        <v>60.8</v>
+        <v>57</v>
       </c>
       <c r="C193">
-        <v>88.43</v>
+        <v>97.66</v>
       </c>
       <c r="D193">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="E193">
         <v>56</v>
       </c>
       <c r="F193">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-13 10:19:47</v>
+        <v>2023-10-15 17:13:56</v>
       </c>
       <c r="B194">
-        <v>61</v>
+        <v>59.3</v>
       </c>
       <c r="C194">
-        <v>95.44</v>
+        <v>90.79</v>
       </c>
       <c r="D194">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="E194">
         <v>56</v>
       </c>
       <c r="F194">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-13 13:56:36</v>
+        <v>2023-10-15 20:54:32</v>
       </c>
       <c r="B195">
-        <v>61</v>
+        <v>58.9</v>
       </c>
       <c r="C195">
-        <v>94.93</v>
+        <v>92.18</v>
       </c>
       <c r="D195">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="E195">
         <v>57</v>
       </c>
       <c r="F195">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-13 17:35:03</v>
+        <v>2023-10-16 00:34:01</v>
       </c>
       <c r="B196">
-        <v>60</v>
+        <v>58.9</v>
       </c>
       <c r="C196">
-        <v>95.23</v>
+        <v>97.66</v>
       </c>
       <c r="D196">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="E196">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F196">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-13 21:13:52</v>
+        <v>2023-10-16 04:09:43</v>
       </c>
       <c r="B197">
-        <v>59.9</v>
+        <v>58.9</v>
       </c>
       <c r="C197">
-        <v>95.52</v>
+        <v>95.54</v>
       </c>
       <c r="D197">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="E197">
         <v>57</v>
       </c>
       <c r="F197">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-14 00:52:20</v>
+        <v>2023-10-16 07:44:31</v>
       </c>
       <c r="B198">
-        <v>60.69</v>
+        <v>58.7</v>
       </c>
       <c r="C198">
-        <v>87.63</v>
+        <v>95.4</v>
       </c>
       <c r="D198">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="E198">
         <v>57</v>
       </c>
       <c r="F198">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-14 04:32:33</v>
+        <v>2023-10-16 11:23:44</v>
       </c>
       <c r="B199">
-        <v>60.39</v>
+        <v>58.4</v>
       </c>
       <c r="C199">
-        <v>91.03</v>
+        <v>95.47</v>
       </c>
       <c r="D199">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="E199">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F199">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-14 08:12:23</v>
+        <v>2023-10-16 15:02:44</v>
       </c>
       <c r="B200">
-        <v>60.3</v>
+        <v>59</v>
       </c>
       <c r="C200">
-        <v>95.99</v>
+        <v>93.31</v>
       </c>
       <c r="D200">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="E200">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F200">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-14 11:52:49</v>
+        <v>2023-10-16 18:43:45</v>
       </c>
       <c r="B201">
-        <v>60.2</v>
+        <v>58.8</v>
       </c>
       <c r="C201">
-        <v>95.99</v>
+        <v>94.89</v>
       </c>
       <c r="D201">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="E201">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F201">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-14 15:32:23</v>
+        <v>2023-10-16 22:23:53</v>
       </c>
       <c r="B202">
-        <v>60.2</v>
+        <v>59</v>
       </c>
       <c r="C202">
-        <v>95.85</v>
+        <v>85.27</v>
       </c>
       <c r="D202">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="E202">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F202">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-14 19:12:16</v>
+        <v>2023-10-17 02:03:48</v>
       </c>
       <c r="B203">
-        <v>59.38</v>
+        <v>58.5</v>
       </c>
       <c r="C203">
-        <v>89.86</v>
+        <v>94.18</v>
       </c>
       <c r="D203">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E203">
         <v>56</v>
       </c>
       <c r="F203">
-        <v>42</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>2023-10-17 05:41:56</v>
+      </c>
+      <c r="B204">
+        <v>58.5</v>
+      </c>
+      <c r="C204">
+        <v>93.66</v>
+      </c>
+      <c r="D204">
+        <v>611</v>
+      </c>
+      <c r="E204">
+        <v>56</v>
+      </c>
+      <c r="F204">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>2023-10-17 09:16:21</v>
+      </c>
+      <c r="B205">
+        <v>58.19</v>
+      </c>
+      <c r="C205">
+        <v>89.2</v>
+      </c>
+      <c r="D205">
+        <v>607</v>
+      </c>
+      <c r="E205">
+        <v>56</v>
+      </c>
+      <c r="F205">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>2023-10-17 09:21:31</v>
+      </c>
+      <c r="B206">
+        <v>58.19</v>
+      </c>
+      <c r="C206">
+        <v>89.2</v>
+      </c>
+      <c r="D206">
+        <v>607</v>
+      </c>
+      <c r="E206">
+        <v>56</v>
+      </c>
+      <c r="F206">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>2023-10-17 12:56:06</v>
+      </c>
+      <c r="B207">
+        <v>58.18</v>
+      </c>
+      <c r="C207">
+        <v>91.39</v>
+      </c>
+      <c r="D207">
+        <v>609</v>
+      </c>
+      <c r="E207">
+        <v>56</v>
+      </c>
+      <c r="F207">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>2023-10-17 13:01:46</v>
+      </c>
+      <c r="B208">
+        <v>58.18</v>
+      </c>
+      <c r="C208">
+        <v>86.27</v>
+      </c>
+      <c r="D208">
+        <v>609</v>
+      </c>
+      <c r="E208">
+        <v>56</v>
+      </c>
+      <c r="F208">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>2023-10-17 16:35:02</v>
+      </c>
+      <c r="B209">
+        <v>58.19</v>
+      </c>
+      <c r="C209">
+        <v>86.27</v>
+      </c>
+      <c r="D209">
+        <v>610</v>
+      </c>
+      <c r="E209">
+        <v>55</v>
+      </c>
+      <c r="F209">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4469,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F203"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F209"/>
   </ignoredErrors>
 </worksheet>
 </file>